--- a/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1123,4 +1124,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1132,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,17 +1144,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1163,14 +1184,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.720000000000001</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1179,13 +1222,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>7.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,321 +453,331 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512660</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>131.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.7457</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512680</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>57.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0149</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163115</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4743</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>502003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4141</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512560</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1778</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512810</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝兴业中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012842</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达军工指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1127,59 +1137,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1194,265 +1204,255 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>118.98</t>
+          <t>131.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.65</t>
+          <t>99.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9150</t>
+          <t>4.7457</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512100</t>
+          <t>512680</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证1000ETF</t>
+          <t>广发中证军工ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.82</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0874</t>
+          <t>2.0149</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159845</t>
+          <t>163115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证1000ETF</t>
+          <t>申万菱信中证军工指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.4743</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006487</t>
+          <t>502003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证1000指数C</t>
+          <t>易方达军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.4141</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006486</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证1000指数A</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>98.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.1778</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.720000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9.720000000000001</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.91</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002625-光启技术.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9.720000000000001</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.91</v>
       </c>
     </row>
@@ -549,6 +566,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
